--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Name/Description (ignored by GHT)</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Godoc test</t>
   </si>
   <si>
-    <t xml:space="preserve">http://localhost:8080</t>
+    <t xml:space="preserve">http://localhost:8080/test</t>
   </si>
   <si>
     <t xml:space="preserve">text/html; charset=utf-8</t>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">(?i)(download go)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any line without a url and expected status code will be ignored by GHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also columns after K are ignored (although I've been thinking about adding a timeout in L)</t>
   </si>
 </sst>
 </file>
@@ -183,15 +189,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,13 +275,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -55,6 +55,9 @@
     <t xml:space="preserve">&lt;time elapse&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;time out&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;further columns are ignored&gt;</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">Any line without a url and expected status code will be ignored by GHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also columns after K are ignored (although I've been thinking about adding a timeout in L)</t>
   </si>
 </sst>
 </file>
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,6 +110,87 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -117,15 +198,57 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -133,8 +256,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,13 +296,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,14 +359,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -189,16 +451,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,19 +500,22 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -259,10 +524,10 @@
         <v>200</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -274,14 +539,12 @@
       <c r="K2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
     </row>
